--- a/team_specific_matrix/Coastal Carolina_A.xlsx
+++ b/team_specific_matrix/Coastal Carolina_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2581967213114754</v>
+        <v>0.2664359861591695</v>
       </c>
       <c r="C2">
-        <v>0.4344262295081967</v>
+        <v>0.4429065743944637</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02049180327868852</v>
+        <v>0.02076124567474048</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1926229508196721</v>
+        <v>0.1799307958477509</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09426229508196721</v>
+        <v>0.08996539792387544</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04</v>
+        <v>0.03424657534246575</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04</v>
+        <v>0.0410958904109589</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6879999999999999</v>
+        <v>0.6917808219178082</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.232</v>
+        <v>0.2328767123287671</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.15625</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.65625</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1875</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09090909090909091</v>
+        <v>0.07878787878787878</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01398601398601399</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.01398601398601399</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2587412587412588</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01398601398601399</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2377622377622378</v>
+        <v>0.2242424242424242</v>
       </c>
       <c r="R6">
-        <v>0.02097902097902098</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="S6">
-        <v>0.3496503496503496</v>
+        <v>0.3454545454545455</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1804511278195489</v>
+        <v>0.1883116883116883</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02255639097744361</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="E7">
-        <v>0.007518796992481203</v>
+        <v>0.006493506493506494</v>
       </c>
       <c r="F7">
-        <v>0.04511278195488722</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1353383458646616</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02255639097744361</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2030075187969925</v>
+        <v>0.1883116883116883</v>
       </c>
       <c r="R7">
-        <v>0.03759398496240601</v>
+        <v>0.03246753246753246</v>
       </c>
       <c r="S7">
-        <v>0.3458646616541353</v>
+        <v>0.3571428571428572</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0830860534124629</v>
+        <v>0.08226221079691516</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01186943620178042</v>
+        <v>0.012853470437018</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0712166172106825</v>
+        <v>0.07197943444730077</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1097922848664688</v>
+        <v>0.1182519280205656</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02670623145400593</v>
+        <v>0.02313624678663239</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1958456973293768</v>
+        <v>0.1902313624678663</v>
       </c>
       <c r="R8">
-        <v>0.06824925816023739</v>
+        <v>0.06683804627249357</v>
       </c>
       <c r="S8">
-        <v>0.4332344213649852</v>
+        <v>0.4344473007712082</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1071428571428571</v>
+        <v>0.1061946902654867</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01020408163265306</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07142857142857142</v>
+        <v>0.06194690265486726</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1173469387755102</v>
+        <v>0.1327433628318584</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03571428571428571</v>
+        <v>0.03539823008849557</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.163265306122449</v>
+        <v>0.1592920353982301</v>
       </c>
       <c r="R9">
-        <v>0.09183673469387756</v>
+        <v>0.07964601769911504</v>
       </c>
       <c r="S9">
-        <v>0.4030612244897959</v>
+        <v>0.415929203539823</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1084093211752786</v>
+        <v>0.1102430555555556</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01925025329280649</v>
+        <v>0.01822916666666667</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05268490374873354</v>
+        <v>0.05295138888888889</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1367781155015197</v>
+        <v>0.1397569444444444</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01925025329280649</v>
+        <v>0.01909722222222222</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.220871327254306</v>
+        <v>0.2204861111111111</v>
       </c>
       <c r="R10">
-        <v>0.07801418439716312</v>
+        <v>0.08506944444444445</v>
       </c>
       <c r="S10">
-        <v>0.364741641337386</v>
+        <v>0.3541666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1938325991189427</v>
+        <v>0.1853281853281853</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0881057268722467</v>
+        <v>0.08494208494208494</v>
       </c>
       <c r="K11">
-        <v>0.2422907488986784</v>
+        <v>0.2355212355212355</v>
       </c>
       <c r="L11">
-        <v>0.4625550660792951</v>
+        <v>0.4787644787644788</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.013215859030837</v>
+        <v>0.01544401544401544</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6384615384615384</v>
+        <v>0.6533333333333333</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2384615384615385</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="K12">
-        <v>0.007692307692307693</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="L12">
-        <v>0.03846153846153846</v>
+        <v>0.04</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.07692307692307693</v>
+        <v>0.07333333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5714285714285714</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3214285714285715</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1071428571428571</v>
+        <v>0.09677419354838709</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01449275362318841</v>
+        <v>0.0124223602484472</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1449275362318841</v>
+        <v>0.1366459627329193</v>
       </c>
       <c r="I15">
-        <v>0.09420289855072464</v>
+        <v>0.08074534161490683</v>
       </c>
       <c r="J15">
-        <v>0.3768115942028986</v>
+        <v>0.3975155279503105</v>
       </c>
       <c r="K15">
-        <v>0.02898550724637681</v>
+        <v>0.03726708074534162</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01449275362318841</v>
+        <v>0.0124223602484472</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03623188405797102</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2898550724637681</v>
+        <v>0.2795031055900621</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02127659574468085</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1631205673758865</v>
+        <v>0.1790123456790123</v>
       </c>
       <c r="I16">
-        <v>0.07801418439716312</v>
+        <v>0.08641975308641975</v>
       </c>
       <c r="J16">
-        <v>0.4184397163120567</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="K16">
-        <v>0.1347517730496454</v>
+        <v>0.1234567901234568</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02127659574468085</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03546099290780142</v>
+        <v>0.0308641975308642</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1276595744680851</v>
+        <v>0.1172839506172839</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01282051282051282</v>
+        <v>0.01354401805869074</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1102564102564103</v>
+        <v>0.1196388261851016</v>
       </c>
       <c r="I17">
-        <v>0.1230769230769231</v>
+        <v>0.1196388261851016</v>
       </c>
       <c r="J17">
-        <v>0.4435897435897436</v>
+        <v>0.4469525959367946</v>
       </c>
       <c r="K17">
-        <v>0.1153846153846154</v>
+        <v>0.1106094808126411</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.005128205128205128</v>
+        <v>0.006772009029345372</v>
       </c>
       <c r="N17">
-        <v>0.002564102564102564</v>
+        <v>0.002257336343115124</v>
       </c>
       <c r="O17">
-        <v>0.03076923076923077</v>
+        <v>0.03160270880361174</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1564102564102564</v>
+        <v>0.1489841986455982</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.007874015748031496</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1417322834645669</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="I18">
-        <v>0.1653543307086614</v>
+        <v>0.1776315789473684</v>
       </c>
       <c r="J18">
-        <v>0.4488188976377953</v>
+        <v>0.4276315789473684</v>
       </c>
       <c r="K18">
-        <v>0.05511811023622047</v>
+        <v>0.05921052631578947</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.007874015748031496</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="N18">
-        <v>0.007874015748031496</v>
+        <v>0.006578947368421052</v>
       </c>
       <c r="O18">
-        <v>0.007874015748031496</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1574803149606299</v>
+        <v>0.1381578947368421</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01351351351351351</v>
+        <v>0.01266891891891892</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2152509652509652</v>
+        <v>0.2119932432432433</v>
       </c>
       <c r="I19">
-        <v>0.09845559845559845</v>
+        <v>0.09966216216216216</v>
       </c>
       <c r="J19">
-        <v>0.3368725868725869</v>
+        <v>0.3378378378378378</v>
       </c>
       <c r="K19">
-        <v>0.09652509652509653</v>
+        <v>0.09881756756756757</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0193050193050193</v>
+        <v>0.01858108108108108</v>
       </c>
       <c r="N19">
-        <v>0.001930501930501931</v>
+        <v>0.001689189189189189</v>
       </c>
       <c r="O19">
-        <v>0.05405405405405406</v>
+        <v>0.05658783783783784</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1640926640926641</v>
+        <v>0.1621621621621622</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Coastal Carolina_A.xlsx
+++ b/team_specific_matrix/Coastal Carolina_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2664359861591695</v>
+        <v>0.2618296529968454</v>
       </c>
       <c r="C2">
-        <v>0.4429065743944637</v>
+        <v>0.4574132492113565</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02076124567474048</v>
+        <v>0.01892744479495268</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1799307958477509</v>
+        <v>0.1766561514195584</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08996539792387544</v>
+        <v>0.08517350157728706</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03424657534246575</v>
+        <v>0.03658536585365853</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0410958904109589</v>
+        <v>0.03658536585365853</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6917808219178082</v>
+        <v>0.7073170731707317</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2328767123287671</v>
+        <v>0.2195121951219512</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1388888888888889</v>
+        <v>0.15</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6388888888888888</v>
+        <v>0.625</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2222222222222222</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07878787878787878</v>
+        <v>0.07446808510638298</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01818181818181818</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.01212121212121212</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2727272727272727</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01818181818181818</v>
+        <v>0.01595744680851064</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2242424242424242</v>
+        <v>0.2074468085106383</v>
       </c>
       <c r="R6">
-        <v>0.0303030303030303</v>
+        <v>0.03723404255319149</v>
       </c>
       <c r="S6">
-        <v>0.3454545454545455</v>
+        <v>0.3563829787234042</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1883116883116883</v>
+        <v>0.1849710982658959</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01948051948051948</v>
+        <v>0.01734104046242774</v>
       </c>
       <c r="E7">
-        <v>0.006493506493506494</v>
+        <v>0.005780346820809248</v>
       </c>
       <c r="F7">
-        <v>0.05194805194805195</v>
+        <v>0.05202312138728324</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1363636363636364</v>
+        <v>0.1213872832369942</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01948051948051948</v>
+        <v>0.01734104046242774</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1883116883116883</v>
+        <v>0.1907514450867052</v>
       </c>
       <c r="R7">
-        <v>0.03246753246753246</v>
+        <v>0.03468208092485549</v>
       </c>
       <c r="S7">
-        <v>0.3571428571428572</v>
+        <v>0.3757225433526011</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08226221079691516</v>
+        <v>0.0867579908675799</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.012853470437018</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07197943444730077</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1182519280205656</v>
+        <v>0.1118721461187215</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02313624678663239</v>
+        <v>0.0228310502283105</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1902313624678663</v>
+        <v>0.1986301369863014</v>
       </c>
       <c r="R8">
-        <v>0.06683804627249357</v>
+        <v>0.06164383561643835</v>
       </c>
       <c r="S8">
-        <v>0.4344473007712082</v>
+        <v>0.4360730593607306</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1061946902654867</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008849557522123894</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06194690265486726</v>
+        <v>0.06746031746031746</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1327433628318584</v>
+        <v>0.123015873015873</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03539823008849557</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1592920353982301</v>
+        <v>0.1547619047619048</v>
       </c>
       <c r="R9">
-        <v>0.07964601769911504</v>
+        <v>0.07539682539682539</v>
       </c>
       <c r="S9">
-        <v>0.415929203539823</v>
+        <v>0.4325396825396826</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1102430555555556</v>
+        <v>0.1057542768273717</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01822916666666667</v>
+        <v>0.01866251944012442</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.05295138888888889</v>
+        <v>0.0536547433903577</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1397569444444444</v>
+        <v>0.135303265940902</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01909722222222222</v>
+        <v>0.01710730948678071</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2204861111111111</v>
+        <v>0.2208398133748056</v>
       </c>
       <c r="R10">
-        <v>0.08506944444444445</v>
+        <v>0.08320373250388803</v>
       </c>
       <c r="S10">
-        <v>0.3541666666666667</v>
+        <v>0.3654743390357698</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1853281853281853</v>
+        <v>0.1855670103092784</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08494208494208494</v>
+        <v>0.0859106529209622</v>
       </c>
       <c r="K11">
-        <v>0.2355212355212355</v>
+        <v>0.2336769759450172</v>
       </c>
       <c r="L11">
-        <v>0.4787644787644788</v>
+        <v>0.4810996563573883</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01544401544401544</v>
+        <v>0.01374570446735395</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6533333333333333</v>
+        <v>0.6445783132530121</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2266666666666667</v>
+        <v>0.2409638554216867</v>
       </c>
       <c r="K12">
-        <v>0.006666666666666667</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="L12">
-        <v>0.04</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.07333333333333333</v>
+        <v>0.07228915662650602</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5806451612903226</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3225806451612903</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.09677419354838709</v>
+        <v>0.08108108108108109</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0124223602484472</v>
+        <v>0.01142857142857143</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1366459627329193</v>
+        <v>0.1257142857142857</v>
       </c>
       <c r="I15">
-        <v>0.08074534161490683</v>
+        <v>0.09142857142857143</v>
       </c>
       <c r="J15">
-        <v>0.3975155279503105</v>
+        <v>0.4057142857142857</v>
       </c>
       <c r="K15">
-        <v>0.03726708074534162</v>
+        <v>0.03428571428571429</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.0124223602484472</v>
+        <v>0.01714285714285714</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04347826086956522</v>
+        <v>0.04571428571428571</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2795031055900621</v>
+        <v>0.2685714285714286</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01851851851851852</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1790123456790123</v>
+        <v>0.1693989071038251</v>
       </c>
       <c r="I16">
-        <v>0.08641975308641975</v>
+        <v>0.08743169398907104</v>
       </c>
       <c r="J16">
-        <v>0.4259259259259259</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="K16">
-        <v>0.1234567901234568</v>
+        <v>0.1256830601092896</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01851851851851852</v>
+        <v>0.02185792349726776</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0308641975308642</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1172839506172839</v>
+        <v>0.1256830601092896</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01354401805869074</v>
+        <v>0.01414141414141414</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1196388261851016</v>
+        <v>0.1232323232323232</v>
       </c>
       <c r="I17">
-        <v>0.1196388261851016</v>
+        <v>0.1252525252525253</v>
       </c>
       <c r="J17">
-        <v>0.4469525959367946</v>
+        <v>0.4404040404040404</v>
       </c>
       <c r="K17">
-        <v>0.1106094808126411</v>
+        <v>0.1070707070707071</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.006772009029345372</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="N17">
-        <v>0.002257336343115124</v>
+        <v>0.00202020202020202</v>
       </c>
       <c r="O17">
-        <v>0.03160270880361174</v>
+        <v>0.03232323232323232</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1489841986455982</v>
+        <v>0.1454545454545454</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0131578947368421</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1578947368421053</v>
+        <v>0.1506024096385542</v>
       </c>
       <c r="I18">
-        <v>0.1776315789473684</v>
+        <v>0.1746987951807229</v>
       </c>
       <c r="J18">
-        <v>0.4276315789473684</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="K18">
-        <v>0.05921052631578947</v>
+        <v>0.06626506024096386</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006578947368421052</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="N18">
-        <v>0.006578947368421052</v>
+        <v>0.006024096385542169</v>
       </c>
       <c r="O18">
-        <v>0.0131578947368421</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1381578947368421</v>
+        <v>0.1385542168674699</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01266891891891892</v>
+        <v>0.01342281879194631</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2119932432432433</v>
+        <v>0.2155108128262491</v>
       </c>
       <c r="I19">
-        <v>0.09966216216216216</v>
+        <v>0.09694258016405667</v>
       </c>
       <c r="J19">
-        <v>0.3378378378378378</v>
+        <v>0.3415361670395227</v>
       </c>
       <c r="K19">
-        <v>0.09881756756756757</v>
+        <v>0.09843400447427293</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01858108108108108</v>
+        <v>0.01789709172259508</v>
       </c>
       <c r="N19">
-        <v>0.001689189189189189</v>
+        <v>0.001491424310216256</v>
       </c>
       <c r="O19">
-        <v>0.05658783783783784</v>
+        <v>0.05592841163310962</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1621621621621622</v>
+        <v>0.1588366890380313</v>
       </c>
     </row>
   </sheetData>
